--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-30.xlsx
@@ -670,16 +670,16 @@
         <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
         <v>950</v>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>2.66</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
@@ -703,10 +703,10 @@
         <v>1.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>1.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
-        <v>2.02</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.51</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>2.16</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="U3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -958,10 +958,10 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>1.55</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.52</v>
@@ -973,49 +973,49 @@
         <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
         <v>980</v>
@@ -1024,25 +1024,25 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1075,49 +1075,49 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J5" t="n">
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="T5" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
         <v>1.73</v>
@@ -1126,10 +1126,10 @@
         <v>1.43</v>
       </c>
       <c r="X5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="n">
         <v>980</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>20</v>
       </c>
       <c r="Z5" t="n">
         <v>980</v>
@@ -1138,13 +1138,13 @@
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
         <v>980</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
         <v>980</v>
@@ -1153,7 +1153,7 @@
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1171,7 +1171,7 @@
         <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
         <v>980</v>
@@ -1213,13 +1213,13 @@
         <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
@@ -1228,31 +1228,31 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.84</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.6</v>
@@ -1261,58 +1261,58 @@
         <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB6" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>980</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AF6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN6" t="n">
         <v>55</v>
       </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AO6" t="n">
         <v>980</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
         <v>2.94</v>
@@ -1354,7 +1354,7 @@
         <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
@@ -1363,37 +1363,37 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.06</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
         <v>2.56</v>
@@ -1489,7 +1489,7 @@
         <v>2.78</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.75</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>2.8</v>
@@ -1507,7 +1507,7 @@
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
         <v>1.81</v>
@@ -1528,7 +1528,7 @@
         <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>1.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>24</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -1756,10 +1756,10 @@
         <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.45</v>
@@ -1768,19 +1768,19 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="O10" t="n">
         <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.2</v>
@@ -1795,7 +1795,7 @@
         <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>1.35</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H11" t="n">
         <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.79</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
         <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,52 +2020,52 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W12" t="n">
         <v>1.15</v>
@@ -2074,16 +2074,16 @@
         <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="n">
         <v>12.5</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G13" t="n">
         <v>1.94</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
         <v>4.1</v>
@@ -2173,31 +2173,31 @@
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>2.58</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
         <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
         <v>1.51</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
@@ -2206,58 +2206,58 @@
         <v>2.06</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
         <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>2.04</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
         <v>1.77</v>
@@ -2461,7 +2461,7 @@
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
         <v>4.3</v>
@@ -2569,7 +2569,7 @@
         <v>6.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K16" t="n">
         <v>5.5</v>
@@ -2581,22 +2581,22 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>1.63</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
         <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2608,7 +2608,7 @@
         <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
         <v>1.79</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="K18" t="n">
         <v>3.25</v>
@@ -2860,7 +2860,7 @@
         <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G19" t="n">
         <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I19" t="n">
         <v>2.62</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2998,7 +2998,7 @@
         <v>1.66</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
         <v>2.68</v>
@@ -3013,7 +3013,7 @@
         <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3643,16 +3643,16 @@
         <v>1.14</v>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
         <v>12.5</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
         <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J25" t="n">
         <v>3</v>
@@ -3820,10 +3820,10 @@
         <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W25" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
         <v>8.199999999999999</v>
@@ -3847,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="n">
         <v>20</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G29" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
         <v>6.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.4</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.42</v>
-      </c>
       <c r="H30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
         <v>3.25</v>
@@ -4462,7 +4462,7 @@
         <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4492,7 +4492,7 @@
         <v>1.66</v>
       </c>
       <c r="U30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4510,22 +4510,22 @@
         <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
         <v>34</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4537,10 +4537,10 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -4549,7 +4549,7 @@
         <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -4591,7 +4591,7 @@
         <v>1.76</v>
       </c>
       <c r="I31" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
         <v>4.2</v>
@@ -4630,7 +4630,7 @@
         <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W31" t="n">
         <v>1.25</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G32" t="n">
         <v>1.54</v>
@@ -4726,13 +4726,13 @@
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4744,19 +4744,19 @@
         <v>4.3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="W32" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4990,13 +4990,13 @@
         <v>1.87</v>
       </c>
       <c r="G34" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H34" t="n">
         <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5134,7 +5134,7 @@
         <v>3.55</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K35" t="n">
         <v>4.1</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
         <v>1.69</v>
@@ -5281,28 +5281,28 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O36" t="n">
         <v>1.01</v>
       </c>
       <c r="P36" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
         <v>1.18</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="V36" t="n">
         <v>1.52</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H37" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="I37" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H40" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="H41" t="n">
         <v>2.78</v>
       </c>
       <c r="I41" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.55</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K41" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5956,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6070,16 +6070,16 @@
         <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
         <v>4.6</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K42" t="n">
         <v>4.8</v>
@@ -6091,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O42" t="n">
         <v>1.27</v>
       </c>
       <c r="P42" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q42" t="n">
         <v>1.91</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I43" t="n">
         <v>2.58</v>
@@ -6235,16 +6235,16 @@
         <v>2.06</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R43" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S43" t="n">
         <v>3.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="n">
         <v>2.28</v>
@@ -6268,7 +6268,7 @@
         <v>36</v>
       </c>
       <c r="AB43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>8</v>
@@ -6280,25 +6280,25 @@
         <v>26</v>
       </c>
       <c r="AF43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI43" t="n">
         <v>38</v>
       </c>
       <c r="AJ43" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM43" t="n">
         <v>80</v>
@@ -6340,13 +6340,13 @@
         <v>2.76</v>
       </c>
       <c r="G44" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H44" t="n">
         <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J44" t="n">
         <v>2.98</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>2.2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>2.34</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3.3</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H49" t="n">
         <v>2.72</v>
       </c>
-      <c r="H49" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I49" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J49" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="K49" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="H53" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="I53" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G54" t="n">
         <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J54" t="n">
         <v>5.2</v>
@@ -7831,7 +7831,7 @@
         <v>2.06</v>
       </c>
       <c r="I55" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
@@ -7966,7 +7966,7 @@
         <v>1.78</v>
       </c>
       <c r="I56" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J56" t="n">
         <v>3.65</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G57" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H57" t="n">
         <v>1.91</v>
       </c>
       <c r="I57" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
@@ -8116,7 +8116,7 @@
         <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="O57" t="n">
         <v>1.01</v>
@@ -8125,7 +8125,7 @@
         <v>1.61</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G58" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I58" t="n">
         <v>4.8</v>
       </c>
       <c r="J58" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K58" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8257,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>4.5</v>
       </c>
       <c r="I60" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J60" t="n">
         <v>3.9</v>
@@ -8515,7 +8515,7 @@
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M60" t="n">
         <v>1.05</v>
@@ -8536,16 +8536,16 @@
         <v>1.47</v>
       </c>
       <c r="S60" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T60" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U60" t="n">
         <v>2.24</v>
       </c>
       <c r="V60" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W60" t="n">
         <v>2.12</v>
@@ -8566,7 +8566,7 @@
         <v>10.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD60" t="n">
         <v>19</v>
@@ -8641,10 +8641,10 @@
         <v>1.34</v>
       </c>
       <c r="I61" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J61" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K61" t="n">
         <v>6</v>
@@ -8680,7 +8680,7 @@
         <v>1.73</v>
       </c>
       <c r="V61" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="W61" t="n">
         <v>1.09</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G66" t="n">
         <v>4.7</v>
       </c>
       <c r="H66" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I66" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="J66" t="n">
         <v>3.15</v>
@@ -9451,7 +9451,7 @@
         <v>7.4</v>
       </c>
       <c r="I67" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J67" t="n">
         <v>4.8</v>
@@ -9475,7 +9475,7 @@
         <v>2.1</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R67" t="n">
         <v>1.42</v>
@@ -9580,13 +9580,13 @@
         <v>4.4</v>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H68" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I68" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J68" t="n">
         <v>4.4</v>
@@ -9610,7 +9610,7 @@
         <v>2.68</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R68" t="n">
         <v>1.69</v>
@@ -9619,7 +9619,7 @@
         <v>2.4</v>
       </c>
       <c r="T68" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U68" t="n">
         <v>2.6</v>
@@ -9628,13 +9628,13 @@
         <v>2.22</v>
       </c>
       <c r="W68" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X68" t="n">
         <v>25</v>
       </c>
       <c r="Y68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z68" t="n">
         <v>14</v>
@@ -9646,7 +9646,7 @@
         <v>24</v>
       </c>
       <c r="AC68" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD68" t="n">
         <v>10</v>
@@ -9661,7 +9661,7 @@
         <v>17.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI68" t="n">
         <v>24</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G69" t="n">
         <v>2.86</v>
@@ -9742,22 +9742,22 @@
         <v>1.32</v>
       </c>
       <c r="P69" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q69" t="n">
         <v>1.99</v>
       </c>
       <c r="R69" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S69" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T69" t="n">
         <v>1.75</v>
       </c>
       <c r="U69" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V69" t="n">
         <v>1.57</v>
@@ -9817,7 +9817,7 @@
         <v>27</v>
       </c>
       <c r="AO69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
@@ -9856,10 +9856,10 @@
         <v>6.2</v>
       </c>
       <c r="I70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J70" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K70" t="n">
         <v>980</v>
@@ -9880,7 +9880,7 @@
         <v>2.98</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>1.61</v>
       </c>
       <c r="U70" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         <v>3.35</v>
       </c>
       <c r="H71" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I71" t="n">
         <v>2.28</v>
@@ -10018,7 +10018,7 @@
         <v>1.6</v>
       </c>
       <c r="R71" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S71" t="n">
         <v>2.48</v>
@@ -10027,7 +10027,7 @@
         <v>1.55</v>
       </c>
       <c r="U71" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         <v>26</v>
       </c>
       <c r="Y71" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z71" t="n">
         <v>18.5</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G72" t="n">
         <v>2.64</v>
       </c>
       <c r="H72" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
         <v>4.9</v>
       </c>
       <c r="J72" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K72" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -10147,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>1.01</v>
       </c>
       <c r="P73" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -10792,22 +10792,22 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G77" t="n">
         <v>2.7</v>
       </c>
       <c r="H77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I77" t="n">
         <v>4.8</v>
       </c>
       <c r="J77" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G78" t="n">
         <v>3.05</v>
@@ -10939,7 +10939,7 @@
         <v>2.82</v>
       </c>
       <c r="J78" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K78" t="n">
         <v>3.75</v>
@@ -10957,10 +10957,10 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -11227,13 +11227,13 @@
         <v>1.35</v>
       </c>
       <c r="P80" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R80" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S80" t="n">
         <v>3.8</v>
@@ -11467,19 +11467,19 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H82" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I82" t="n">
         <v>4.3</v>
       </c>
       <c r="J82" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K82" t="n">
         <v>5.9</v>
@@ -11497,10 +11497,10 @@
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2.4</v>
+        <v>1.24</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -11602,22 +11602,22 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G83" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H83" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I83" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J83" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K83" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -11872,22 +11872,22 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G85" t="n">
         <v>5.5</v>
       </c>
       <c r="H85" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="I85" t="n">
         <v>2.4</v>
       </c>
       <c r="J85" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K85" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -11896,16 +11896,16 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O85" t="n">
         <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="G86" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="I86" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J86" t="n">
         <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>1.63</v>
       </c>
       <c r="S87" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T87" t="n">
         <v>2.22</v>
@@ -12412,10 +12412,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G89" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="H89" t="n">
         <v>5.8</v>
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G90" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I90" t="n">
         <v>3.2</v>
@@ -12562,7 +12562,7 @@
         <v>3.7</v>
       </c>
       <c r="K90" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12580,7 +12580,7 @@
         <v>2.42</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12685,19 +12685,19 @@
         <v>2.16</v>
       </c>
       <c r="G91" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H91" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J91" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K91" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
         <v>5.3</v>
@@ -12850,7 +12850,7 @@
         <v>1.98</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R92" t="n">
         <v>1.38</v>
@@ -12892,7 +12892,7 @@
         <v>10.5</v>
       </c>
       <c r="AE92" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF92" t="n">
         <v>48</v>
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G93" t="n">
         <v>4.8</v>
@@ -12976,28 +12976,28 @@
         <v>1.07</v>
       </c>
       <c r="N93" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O93" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="n">
         <v>1.97</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R93" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T93" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U93" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V93" t="n">
         <v>2.06</v>
@@ -13006,58 +13006,58 @@
         <v>1.26</v>
       </c>
       <c r="X93" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y93" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z93" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AA93" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AB93" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AC93" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD93" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE93" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AF93" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG93" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AH93" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="AI93" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ93" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK93" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL93" t="n">
         <v>70</v>
       </c>
-      <c r="AL93" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM93" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO93" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="94">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G94" t="n">
         <v>2.54</v>
@@ -13120,7 +13120,7 @@
         <v>2.04</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R94" t="n">
         <v>1.41</v>
@@ -13129,10 +13129,10 @@
         <v>3.25</v>
       </c>
       <c r="T94" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U94" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V94" t="n">
         <v>1.45</v>
@@ -13141,7 +13141,7 @@
         <v>1.64</v>
       </c>
       <c r="X94" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y94" t="n">
         <v>13.5</v>
@@ -13177,7 +13177,7 @@
         <v>46</v>
       </c>
       <c r="AJ94" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK94" t="n">
         <v>28</v>
@@ -13186,10 +13186,10 @@
         <v>40</v>
       </c>
       <c r="AM94" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN94" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO94" t="n">
         <v>32</v>
@@ -13222,19 +13222,19 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="G95" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H95" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="I95" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J95" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K95" t="n">
         <v>3.3</v>
@@ -13243,70 +13243,70 @@
         <v>1.01</v>
       </c>
       <c r="M95" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N95" t="n">
         <v>2.78</v>
       </c>
       <c r="O95" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P95" t="n">
         <v>1.6</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R95" t="n">
         <v>1.22</v>
       </c>
       <c r="S95" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V95" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W95" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X95" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y95" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z95" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA95" t="n">
         <v>1000</v>
       </c>
       <c r="AB95" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC95" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD95" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE95" t="n">
         <v>1000</v>
       </c>
       <c r="AF95" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG95" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI95" t="n">
         <v>1000</v>
@@ -13324,7 +13324,7 @@
         <v>1000</v>
       </c>
       <c r="AN95" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO95" t="n">
         <v>1000</v>
@@ -13360,7 +13360,7 @@
         <v>2.62</v>
       </c>
       <c r="G96" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H96" t="n">
         <v>2.5</v>
@@ -13390,13 +13390,13 @@
         <v>2</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R96" t="n">
         <v>1.18</v>
       </c>
       <c r="S96" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13405,10 +13405,10 @@
         <v>1.01</v>
       </c>
       <c r="V96" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W96" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G97" t="n">
         <v>3.65</v>
@@ -13534,7 +13534,7 @@
         <v>3.45</v>
       </c>
       <c r="T97" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U97" t="n">
         <v>2.22</v>
@@ -13564,7 +13564,7 @@
         <v>7.4</v>
       </c>
       <c r="AD97" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE97" t="n">
         <v>23</v>
@@ -13636,13 +13636,13 @@
         <v>4.4</v>
       </c>
       <c r="I98" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J98" t="n">
         <v>4.2</v>
       </c>
       <c r="K98" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -13663,7 +13663,7 @@
         <v>1.54</v>
       </c>
       <c r="R98" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S98" t="n">
         <v>2.32</v>
@@ -13720,7 +13720,7 @@
         <v>21</v>
       </c>
       <c r="AK98" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL98" t="n">
         <v>26</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.28</v>
+        <v>4.7</v>
       </c>
       <c r="G102" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="H102" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I102" t="n">
         <v>1.78</v>
       </c>
       <c r="J102" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="K102" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>1.25</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G103" t="n">
         <v>1.76</v>
       </c>
       <c r="H103" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I103" t="n">
         <v>5.7</v>
       </c>
       <c r="J103" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K103" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14347,7 +14347,7 @@
         <v>1.89</v>
       </c>
       <c r="U103" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
@@ -14356,25 +14356,25 @@
         <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z103" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA103" t="n">
         <v>160</v>
       </c>
       <c r="AB103" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC103" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE103" t="n">
         <v>80</v>
@@ -14407,7 +14407,7 @@
         <v>11</v>
       </c>
       <c r="AO103" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
@@ -14575,7 +14575,7 @@
         <v>1.9</v>
       </c>
       <c r="G105" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H105" t="n">
         <v>3.95</v>
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="G107" t="n">
         <v>6.6</v>
@@ -14851,7 +14851,7 @@
         <v>1.52</v>
       </c>
       <c r="I107" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
@@ -14872,10 +14872,10 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -15007,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -15250,19 +15250,19 @@
         <v>2.08</v>
       </c>
       <c r="G110" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I110" t="n">
         <v>4.2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K110" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>3.35</v>
       </c>
       <c r="T110" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U110" t="n">
         <v>2.2</v>
@@ -15304,7 +15304,7 @@
         <v>17.5</v>
       </c>
       <c r="Y110" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z110" t="n">
         <v>32</v>
@@ -15325,7 +15325,7 @@
         <v>50</v>
       </c>
       <c r="AF110" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG110" t="n">
         <v>11</v>
@@ -15352,7 +15352,7 @@
         <v>19</v>
       </c>
       <c r="AO110" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
@@ -15382,16 +15382,16 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G111" t="n">
         <v>2.24</v>
       </c>
       <c r="H111" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I111" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J111" t="n">
         <v>3.05</v>
@@ -15412,10 +15412,10 @@
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -15523,7 +15523,7 @@
         <v>2.32</v>
       </c>
       <c r="H112" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I112" t="n">
         <v>4.2</v>
@@ -15538,7 +15538,7 @@
         <v>1.01</v>
       </c>
       <c r="M112" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N112" t="n">
         <v>3</v>
@@ -15550,13 +15550,13 @@
         <v>1.72</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R112" t="n">
         <v>1.24</v>
       </c>
       <c r="S112" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T112" t="n">
         <v>1.93</v>
@@ -15574,7 +15574,7 @@
         <v>13</v>
       </c>
       <c r="Y112" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z112" t="n">
         <v>34</v>
@@ -15589,7 +15589,7 @@
         <v>9</v>
       </c>
       <c r="AD112" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE112" t="n">
         <v>70</v>
@@ -15607,7 +15607,7 @@
         <v>1000</v>
       </c>
       <c r="AJ112" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK112" t="n">
         <v>34</v>
@@ -15820,7 +15820,7 @@
         <v>3.05</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -15928,16 +15928,16 @@
         <v>2.24</v>
       </c>
       <c r="H115" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I115" t="n">
         <v>6</v>
       </c>
       <c r="J115" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K115" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -15955,7 +15955,7 @@
         <v>1.75</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
@@ -16192,22 +16192,22 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I117" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K117" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3.7</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -16216,7 +16216,7 @@
         <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O117" t="n">
         <v>1.35</v>
@@ -16225,7 +16225,7 @@
         <v>1.9</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R117" t="n">
         <v>1.34</v>
@@ -16234,7 +16234,7 @@
         <v>3.75</v>
       </c>
       <c r="T117" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U117" t="n">
         <v>2.06</v>
@@ -16246,55 +16246,55 @@
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y117" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z117" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA117" t="n">
         <v>120</v>
       </c>
       <c r="AB117" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC117" t="n">
         <v>8</v>
       </c>
       <c r="AD117" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE117" t="n">
         <v>60</v>
       </c>
       <c r="AF117" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AG117" t="n">
         <v>10.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI117" t="n">
         <v>80</v>
       </c>
       <c r="AJ117" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK117" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL117" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM117" t="n">
         <v>140</v>
       </c>
       <c r="AN117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO117" t="n">
         <v>80</v>
@@ -16327,22 +16327,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="I118" t="n">
         <v>2.28</v>
       </c>
       <c r="J118" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K118" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -16357,10 +16357,10 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -16600,16 +16600,16 @@
         <v>3.2</v>
       </c>
       <c r="G120" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H120" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I120" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J120" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K120" t="n">
         <v>4</v>
@@ -16627,7 +16627,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q120" t="n">
         <v>1.83</v>
@@ -16732,16 +16732,16 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="G121" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I121" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J121" t="n">
         <v>4.2</v>
@@ -16867,22 +16867,22 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H122" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="I122" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J122" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K122" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -16897,10 +16897,10 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -17032,10 +17032,10 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -17137,13 +17137,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G124" t="n">
         <v>2.46</v>
       </c>
       <c r="H124" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -17278,7 +17278,7 @@
         <v>3.65</v>
       </c>
       <c r="H125" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I125" t="n">
         <v>2.44</v>
@@ -17296,16 +17296,16 @@
         <v>1.01</v>
       </c>
       <c r="N125" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O125" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="P125" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="R125" t="n">
         <v>1.18</v>
@@ -17440,7 +17440,7 @@
         <v>2.92</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -17713,10 +17713,10 @@
         <v>1.75</v>
       </c>
       <c r="R128" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S128" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T128" t="n">
         <v>1.95</v>
@@ -17734,7 +17734,7 @@
         <v>20</v>
       </c>
       <c r="Y128" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z128" t="n">
         <v>1000</v>
@@ -17749,7 +17749,7 @@
         <v>11</v>
       </c>
       <c r="AD128" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE128" t="n">
         <v>150</v>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G129" t="n">
         <v>2.84</v>
@@ -17821,7 +17821,7 @@
         <v>3.2</v>
       </c>
       <c r="I129" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J129" t="n">
         <v>3</v>
@@ -17845,7 +17845,7 @@
         <v>1.6</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R129" t="n">
         <v>1.22</v>
@@ -17866,7 +17866,7 @@
         <v>1.54</v>
       </c>
       <c r="X129" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y129" t="n">
         <v>9.800000000000001</v>
@@ -17890,19 +17890,19 @@
         <v>48</v>
       </c>
       <c r="AF129" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG129" t="n">
         <v>13.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI129" t="n">
         <v>70</v>
       </c>
       <c r="AJ129" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK129" t="n">
         <v>40</v>
@@ -17914,7 +17914,7 @@
         <v>190</v>
       </c>
       <c r="AN129" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AO129" t="n">
         <v>60</v>
@@ -17950,19 +17950,19 @@
         <v>7.2</v>
       </c>
       <c r="G130" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H130" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I130" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="J130" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K130" t="n">
         <v>5.4</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.5</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
@@ -17986,7 +17986,7 @@
         <v>1.89</v>
       </c>
       <c r="S130" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T130" t="n">
         <v>1.63</v>
@@ -18001,10 +18001,10 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y130" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z130" t="n">
         <v>12.5</v>
@@ -18016,7 +18016,7 @@
         <v>42</v>
       </c>
       <c r="AC130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD130" t="n">
         <v>10.5</v>
@@ -18031,10 +18031,10 @@
         <v>30</v>
       </c>
       <c r="AH130" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI130" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ130" t="n">
         <v>210</v>
@@ -18052,7 +18052,7 @@
         <v>990</v>
       </c>
       <c r="AO130" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="131">
@@ -18082,22 +18082,22 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G131" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H131" t="n">
         <v>3.15</v>
       </c>
       <c r="I131" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J131" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K131" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L131" t="n">
         <v>1.01</v>
@@ -18106,10 +18106,10 @@
         <v>1.01</v>
       </c>
       <c r="N131" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O131" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P131" t="n">
         <v>1.78</v>
@@ -18118,10 +18118,10 @@
         <v>1.81</v>
       </c>
       <c r="R131" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S131" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T131" t="n">
         <v>1.01</v>
@@ -18130,10 +18130,10 @@
         <v>1.01</v>
       </c>
       <c r="V131" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W131" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18217,19 +18217,19 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G132" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H132" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="I132" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J132" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K132" t="n">
         <v>950</v>
@@ -18247,10 +18247,10 @@
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>6.6</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L133" t="n">
         <v>0</v>
@@ -18385,7 +18385,7 @@
         <v>2.44</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R133" t="n">
         <v>0</v>
@@ -19039,7 +19039,7 @@
         <v>3.7</v>
       </c>
       <c r="J138" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K138" t="n">
         <v>3.55</v>
@@ -19057,10 +19057,10 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R138" t="n">
         <v>0</v>
@@ -19171,10 +19171,10 @@
         <v>4.2</v>
       </c>
       <c r="I139" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J139" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="K139" t="n">
         <v>3.35</v>
@@ -19192,10 +19192,10 @@
         <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R139" t="n">
         <v>0</v>
@@ -19567,19 +19567,19 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G142" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="H142" t="n">
         <v>2.76</v>
       </c>
       <c r="I142" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K142" t="n">
         <v>3.85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-30.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO148"/>
+  <dimension ref="A1:AO149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="H2" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="I2" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
@@ -727,52 +727,52 @@
         <v>42</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA2" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AB2" t="n">
         <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
         <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
         <v>140</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
         <v>2.46</v>
@@ -826,16 +826,16 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
         <v>1.66</v>
@@ -856,58 +856,58 @@
         <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI3" t="n">
         <v>34</v>
       </c>
-      <c r="AA3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AJ3" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK3" t="n">
         <v>23</v>
       </c>
-      <c r="AC3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
         <v>17</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1039,10 +1039,10 @@
         <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
         <v>3.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
         <v>2.36</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q5" t="n">
         <v>1.6</v>
@@ -1153,7 +1153,7 @@
         <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>3.35</v>
@@ -1225,7 +1225,7 @@
         <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,7 +1237,7 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1285,7 +1285,7 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>16.5</v>
@@ -1306,13 +1306,13 @@
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
         <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1360,7 +1360,7 @@
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.12</v>
@@ -1381,7 +1381,7 @@
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
         <v>2.26</v>
@@ -1489,7 +1489,7 @@
         <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
@@ -1507,7 +1507,7 @@
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
         <v>1.75</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
         <v>5.5</v>
@@ -1633,7 +1633,7 @@
         <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>3.05</v>
@@ -1645,7 +1645,7 @@
         <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
         <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
         <v>3.2</v>
@@ -1768,10 +1768,10 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1789,13 +1789,13 @@
         <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>1.36</v>
@@ -1900,7 +1900,7 @@
         <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1909,10 +1909,10 @@
         <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q11" t="n">
         <v>1.86</v>
@@ -1972,7 +1972,7 @@
         <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -2047,10 +2047,10 @@
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
         <v>1.43</v>
@@ -2059,7 +2059,7 @@
         <v>2.98</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U12" t="n">
         <v>1.82</v>
@@ -2116,13 +2116,13 @@
         <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
         <v>130</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
@@ -2185,25 +2185,25 @@
         <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
         <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
         <v>23</v>
@@ -2218,7 +2218,7 @@
         <v>95</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.800000000000001</v>
@@ -2230,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
@@ -2239,7 +2239,7 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2254,10 +2254,10 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2566,10 +2566,10 @@
         <v>2.26</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2578,91 +2578,91 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S16" t="n">
         <v>3</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.66</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="W16" t="n">
         <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J20" t="n">
         <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
         <v>4.4</v>
@@ -3247,7 +3247,7 @@
         <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3262,7 +3262,7 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q21" t="n">
         <v>1.99</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>1.99</v>
@@ -3382,7 +3382,7 @@
         <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3418,7 +3418,7 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
         <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3529,7 +3529,7 @@
         <v>2.26</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
         <v>2.26</v>
@@ -3550,7 +3550,7 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
         <v>1.26</v>
@@ -3652,7 +3652,7 @@
         <v>13.5</v>
       </c>
       <c r="K24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3676,7 +3676,7 @@
         <v>2.96</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T24" t="n">
         <v>1.81</v>
@@ -3802,7 +3802,7 @@
         <v>1.59</v>
       </c>
       <c r="P25" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
         <v>2.84</v>
@@ -3820,7 +3820,7 @@
         <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W25" t="n">
         <v>1.44</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="I26" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="J26" t="n">
         <v>2.76</v>
       </c>
       <c r="K26" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.54</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27">
@@ -4066,13 +4066,13 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q27" t="n">
         <v>1.02</v>
@@ -4081,7 +4081,7 @@
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4180,7 +4180,7 @@
         <v>1.78</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
         <v>4.4</v>
@@ -4195,16 +4195,16 @@
         <v>4.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="P28" t="n">
         <v>1.77</v>
@@ -4216,7 +4216,7 @@
         <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4228,7 +4228,7 @@
         <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G29" t="n">
         <v>2.38</v>
@@ -4336,7 +4336,7 @@
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
@@ -4351,16 +4351,16 @@
         <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U29" t="n">
         <v>2.38</v>
       </c>
       <c r="V29" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W29" t="n">
         <v>1.72</v>
@@ -4414,7 +4414,7 @@
         <v>70</v>
       </c>
       <c r="AN29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>27</v>
@@ -4450,7 +4450,7 @@
         <v>4.5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>1.75</v>
@@ -4477,7 +4477,7 @@
         <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q30" t="n">
         <v>1.63</v>
@@ -4504,7 +4504,7 @@
         <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
@@ -4528,7 +4528,7 @@
         <v>42</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH30" t="n">
         <v>17.5</v>
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>80</v>
@@ -4606,13 +4606,13 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O31" t="n">
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q31" t="n">
         <v>1.63</v>
@@ -4636,7 +4636,7 @@
         <v>1.64</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>980</v>
@@ -4738,13 +4738,13 @@
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P32" t="n">
         <v>2.28</v>
@@ -4753,16 +4753,16 @@
         <v>1.68</v>
       </c>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="U32" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
         <v>1.4</v>
@@ -4774,46 +4774,46 @@
         <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="G33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="I33" t="n">
         <v>2.82</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K33" t="n">
         <v>3.4</v>
@@ -4891,7 +4891,7 @@
         <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T33" t="n">
         <v>1.99</v>
@@ -4903,7 +4903,7 @@
         <v>1.55</v>
       </c>
       <c r="W33" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X33" t="n">
         <v>11.5</v>
@@ -4912,7 +4912,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
         <v>55</v>
@@ -4927,7 +4927,7 @@
         <v>15.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF33" t="n">
         <v>26</v>
@@ -4936,7 +4936,7 @@
         <v>18</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI33" t="n">
         <v>75</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="G34" t="n">
         <v>4.5</v>
@@ -4996,13 +4996,13 @@
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,16 +5011,16 @@
         <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O34" t="n">
         <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
         <v>1.42</v>
@@ -5035,7 +5035,7 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W34" t="n">
         <v>1.28</v>
@@ -5134,7 +5134,7 @@
         <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K35" t="n">
         <v>4.2</v>
@@ -5152,7 +5152,7 @@
         <v>1.24</v>
       </c>
       <c r="P35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q35" t="n">
         <v>1.75</v>
@@ -5197,10 +5197,10 @@
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -5212,7 +5212,7 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK35" t="n">
         <v>28</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>70</v>
@@ -5263,7 +5263,7 @@
         <v>3.7</v>
       </c>
       <c r="H36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I36" t="n">
         <v>3.25</v>
@@ -5419,7 +5419,7 @@
         <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P37" t="n">
         <v>2.02</v>
@@ -5431,7 +5431,7 @@
         <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T37" t="n">
         <v>1.73</v>
@@ -5533,10 +5533,10 @@
         <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5551,34 +5551,34 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
         <v>1.48</v>
       </c>
       <c r="S38" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
         <v>1.13</v>
       </c>
       <c r="W38" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X38" t="n">
         <v>980</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
         <v>980</v>
@@ -5614,7 +5614,7 @@
         <v>980</v>
       </c>
       <c r="AI38" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="n">
         <v>980</v>
@@ -5662,19 +5662,19 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>2.94</v>
       </c>
       <c r="I39" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>3.25</v>
@@ -5686,37 +5686,37 @@
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1.57</v>
+        <v>2.52</v>
       </c>
       <c r="O39" t="n">
         <v>1.51</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q39" t="n">
         <v>2.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S39" t="n">
         <v>4.8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V39" t="n">
         <v>1.45</v>
       </c>
       <c r="W39" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
         <v>1000</v>
@@ -5806,7 +5806,7 @@
         <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>3.15</v>
@@ -5818,34 +5818,34 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W40" t="n">
         <v>1.66</v>
@@ -5854,43 +5854,43 @@
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5959,10 +5959,10 @@
         <v>4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="P41" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q41" t="n">
         <v>1.77</v>
@@ -5998,7 +5998,7 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC41" t="n">
         <v>19.5</v>
@@ -6013,7 +6013,7 @@
         <v>7.6</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
         <v>1000</v>
@@ -6022,10 +6022,10 @@
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="n">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO41" t="n">
         <v>1000</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G42" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H42" t="n">
         <v>2.78</v>
       </c>
       <c r="I42" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
         <v>3.85</v>
@@ -6091,13 +6091,13 @@
         <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.27</v>
       </c>
       <c r="P42" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" t="n">
         <v>1.82</v>
@@ -6115,10 +6115,10 @@
         <v>2.28</v>
       </c>
       <c r="V42" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W42" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H43" t="n">
         <v>2.62</v>
       </c>
       <c r="I43" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6226,7 +6226,7 @@
         <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O43" t="n">
         <v>1.23</v>
@@ -6235,25 +6235,25 @@
         <v>2.14</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T43" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="U43" t="n">
         <v>2.34</v>
       </c>
       <c r="V43" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W43" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
         <v>23</v>
@@ -6271,7 +6271,7 @@
         <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD43" t="n">
         <v>13.5</v>
@@ -6304,7 +6304,7 @@
         <v>75</v>
       </c>
       <c r="AN43" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AO43" t="n">
         <v>980</v>
@@ -6781,7 +6781,7 @@
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -7156,7 +7156,7 @@
         <v>1.47</v>
       </c>
       <c r="I50" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J50" t="n">
         <v>5.2</v>
@@ -7168,7 +7168,7 @@
         <v>1.23</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N50" t="n">
         <v>6.4</v>
@@ -7183,22 +7183,22 @@
         <v>1.46</v>
       </c>
       <c r="R50" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="S50" t="n">
         <v>2.16</v>
       </c>
       <c r="T50" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="U50" t="n">
         <v>2.32</v>
       </c>
       <c r="V50" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="W50" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X50" t="n">
         <v>980</v>
@@ -7237,22 +7237,22 @@
         <v>980</v>
       </c>
       <c r="AJ50" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK50" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM50" t="n">
         <v>75</v>
       </c>
       <c r="AN50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO50" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
@@ -7285,7 +7285,7 @@
         <v>3.55</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H51" t="n">
         <v>2.06</v>
@@ -7294,22 +7294,22 @@
         <v>2.22</v>
       </c>
       <c r="J51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="O51" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
         <v>2.02</v>
@@ -7318,16 +7318,16 @@
         <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S51" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V51" t="n">
         <v>1.81</v>
@@ -7336,58 +7336,58 @@
         <v>1.33</v>
       </c>
       <c r="X51" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB51" t="n">
         <v>15</v>
       </c>
-      <c r="Z51" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>21</v>
-      </c>
       <c r="AC51" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD51" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AE51" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF51" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ51" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN51" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AO51" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -7426,7 +7426,7 @@
         <v>1.77</v>
       </c>
       <c r="I52" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J52" t="n">
         <v>3.8</v>
@@ -7441,7 +7441,7 @@
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O52" t="n">
         <v>1.26</v>
@@ -7456,16 +7456,16 @@
         <v>1.43</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V52" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W52" t="n">
         <v>1.25</v>
@@ -7480,7 +7480,7 @@
         <v>14.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AB52" t="n">
         <v>22</v>
@@ -7492,7 +7492,7 @@
         <v>12.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF52" t="n">
         <v>980</v>
@@ -7522,7 +7522,7 @@
         <v>70</v>
       </c>
       <c r="AO52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G53" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>2.52</v>
       </c>
       <c r="I53" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J53" t="n">
         <v>3.6</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L53" t="n">
         <v>1.3</v>
@@ -7576,22 +7576,22 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q53" t="n">
         <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S53" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T53" t="n">
         <v>1.58</v>
@@ -7600,13 +7600,13 @@
         <v>2.44</v>
       </c>
       <c r="V53" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W53" t="n">
         <v>1.5</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y53" t="n">
         <v>15</v>
@@ -7654,7 +7654,7 @@
         <v>65</v>
       </c>
       <c r="AN53" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO53" t="n">
         <v>16</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J54" t="n">
         <v>3.2</v>
@@ -7714,22 +7714,22 @@
         <v>2.88</v>
       </c>
       <c r="O54" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P54" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q54" t="n">
         <v>2.22</v>
       </c>
       <c r="R54" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S54" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T54" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U54" t="n">
         <v>1.88</v>
@@ -7738,7 +7738,7 @@
         <v>1.86</v>
       </c>
       <c r="W54" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X54" t="n">
         <v>13.5</v>
@@ -7747,25 +7747,25 @@
         <v>9.4</v>
       </c>
       <c r="Z54" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC54" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE54" t="n">
         <v>32</v>
       </c>
       <c r="AF54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG54" t="n">
         <v>22</v>
@@ -7792,7 +7792,7 @@
         <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -7822,19 +7822,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G55" t="n">
         <v>5.7</v>
       </c>
       <c r="H55" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I55" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J55" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K55" t="n">
         <v>980</v>
@@ -7855,13 +7855,13 @@
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R55" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S55" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
@@ -7870,7 +7870,7 @@
         <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W55" t="n">
         <v>1.21</v>
@@ -7966,7 +7966,7 @@
         <v>7.4</v>
       </c>
       <c r="I56" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J56" t="n">
         <v>4.9</v>
@@ -8002,7 +8002,7 @@
         <v>1.78</v>
       </c>
       <c r="U56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V56" t="n">
         <v>1.13</v>
@@ -8020,19 +8020,19 @@
         <v>1000</v>
       </c>
       <c r="AA56" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB56" t="n">
         <v>13</v>
       </c>
       <c r="AC56" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD56" t="n">
         <v>1000</v>
       </c>
       <c r="AE56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF56" t="n">
         <v>1000</v>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G57" t="n">
         <v>4.7</v>
@@ -8101,10 +8101,10 @@
         <v>1.97</v>
       </c>
       <c r="I57" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K57" t="n">
         <v>980</v>
@@ -8128,19 +8128,19 @@
         <v>1.01</v>
       </c>
       <c r="R57" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S57" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U57" t="n">
         <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W57" t="n">
         <v>1.27</v>
@@ -8230,19 +8230,19 @@
         <v>3.6</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H58" t="n">
         <v>2.36</v>
       </c>
       <c r="I58" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="J58" t="n">
         <v>2.88</v>
       </c>
       <c r="K58" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>4.7</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
         <v>980</v>
@@ -8386,10 +8386,10 @@
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O59" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P59" t="n">
         <v>1.9</v>
@@ -8401,7 +8401,7 @@
         <v>1.31</v>
       </c>
       <c r="S59" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T59" t="n">
         <v>1.01</v>
@@ -8533,10 +8533,10 @@
         <v>1.78</v>
       </c>
       <c r="R60" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S60" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T60" t="n">
         <v>1.74</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G61" t="n">
         <v>2.14</v>
@@ -8641,13 +8641,13 @@
         <v>3.8</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
       </c>
       <c r="K61" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L61" t="n">
         <v>1.01</v>
@@ -8665,79 +8665,79 @@
         <v>1.96</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R61" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S61" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U61" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V61" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W61" t="n">
         <v>1.87</v>
       </c>
       <c r="X61" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y61" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB61" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG61" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO61" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -8905,7 +8905,7 @@
         <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
         <v>1.34</v>
@@ -8935,7 +8935,7 @@
         <v>2.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R63" t="n">
         <v>1.46</v>
@@ -8944,10 +8944,10 @@
         <v>3.05</v>
       </c>
       <c r="T63" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U63" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
         <v>3.75</v>
@@ -8965,7 +8965,7 @@
         <v>7.4</v>
       </c>
       <c r="AA63" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB63" t="n">
         <v>34</v>
@@ -9091,7 +9091,7 @@
         <v>1.54</v>
       </c>
       <c r="X64" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y64" t="n">
         <v>12</v>
@@ -9190,7 +9190,7 @@
         <v>4.8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M65" t="n">
         <v>1.06</v>
@@ -9211,13 +9211,13 @@
         <v>1.4</v>
       </c>
       <c r="S65" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T65" t="n">
         <v>2.02</v>
       </c>
       <c r="U65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V65" t="n">
         <v>1.14</v>
@@ -9253,7 +9253,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AH65" t="n">
         <v>25</v>
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="F66" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G66" t="n">
         <v>4.5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4.6</v>
       </c>
       <c r="H66" t="n">
         <v>1.78</v>
@@ -9349,16 +9349,16 @@
         <v>2.48</v>
       </c>
       <c r="T66" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U66" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V66" t="n">
         <v>2.24</v>
       </c>
       <c r="W66" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X66" t="n">
         <v>25</v>
@@ -9409,7 +9409,7 @@
         <v>60</v>
       </c>
       <c r="AN66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO66" t="n">
         <v>7.4</v>
@@ -9442,25 +9442,25 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
         <v>4.1</v>
       </c>
       <c r="L67" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
@@ -9472,10 +9472,10 @@
         <v>1.35</v>
       </c>
       <c r="P67" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R67" t="n">
         <v>1.29</v>
@@ -9484,16 +9484,16 @@
         <v>3.7</v>
       </c>
       <c r="T67" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="U67" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W67" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X67" t="n">
         <v>1000</v>
@@ -9580,7 +9580,7 @@
         <v>1.31</v>
       </c>
       <c r="G68" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H68" t="n">
         <v>9</v>
@@ -9589,100 +9589,100 @@
         <v>13</v>
       </c>
       <c r="J68" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K68" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L68" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M68" t="n">
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O68" t="n">
         <v>1.11</v>
       </c>
       <c r="P68" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R68" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="S68" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V68" t="n">
         <v>1.08</v>
       </c>
       <c r="W68" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X68" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y68" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z68" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA68" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB68" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC68" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE68" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF68" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH68" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI68" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN68" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69">
@@ -9730,7 +9730,7 @@
         <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
@@ -9742,7 +9742,7 @@
         <v>1.19</v>
       </c>
       <c r="P69" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q69" t="n">
         <v>1.59</v>
@@ -9757,7 +9757,7 @@
         <v>1.54</v>
       </c>
       <c r="U69" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V69" t="n">
         <v>1.82</v>
@@ -9850,19 +9850,19 @@
         <v>1.35</v>
       </c>
       <c r="G70" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H70" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I70" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
         <v>5.8</v>
       </c>
       <c r="K70" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L70" t="n">
         <v>1.01</v>
@@ -9871,25 +9871,25 @@
         <v>1.01</v>
       </c>
       <c r="N70" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R70" t="n">
         <v>1.8</v>
       </c>
       <c r="S70" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T70" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U70" t="n">
         <v>2</v>
@@ -9898,7 +9898,7 @@
         <v>1.12</v>
       </c>
       <c r="W70" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="X70" t="n">
         <v>980</v>
@@ -9928,7 +9928,7 @@
         <v>980</v>
       </c>
       <c r="AG70" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH70" t="n">
         <v>980</v>
@@ -9949,7 +9949,7 @@
         <v>110</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AO70" t="n">
         <v>95</v>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G71" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H71" t="n">
         <v>3.7</v>
@@ -10006,7 +10006,7 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="O71" t="n">
         <v>1.01</v>
@@ -10018,7 +10018,7 @@
         <v>1.8</v>
       </c>
       <c r="R71" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="S71" t="n">
         <v>1.8</v>
@@ -10117,22 +10117,22 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G72" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J72" t="n">
         <v>3.05</v>
       </c>
       <c r="K72" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L72" t="n">
         <v>1.4</v>
@@ -10141,88 +10141,88 @@
         <v>1.1</v>
       </c>
       <c r="N72" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P72" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q72" t="n">
         <v>2.3</v>
       </c>
       <c r="R72" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S72" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="T72" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U72" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V72" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W72" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X72" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA72" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB72" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD72" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE72" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF72" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG72" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI72" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL72" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM72" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN72" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO72" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
@@ -10255,10 +10255,10 @@
         <v>2.84</v>
       </c>
       <c r="G73" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H73" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I73" t="n">
         <v>2.9</v>
@@ -10267,7 +10267,7 @@
         <v>3.2</v>
       </c>
       <c r="K73" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L73" t="n">
         <v>1.45</v>
@@ -10306,7 +10306,7 @@
         <v>1.51</v>
       </c>
       <c r="X73" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y73" t="n">
         <v>11</v>
@@ -10321,7 +10321,7 @@
         <v>10.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD73" t="n">
         <v>14</v>
@@ -10387,16 +10387,16 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G74" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H74" t="n">
         <v>4.8</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="n">
         <v>4.4</v>
@@ -10411,88 +10411,88 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="O74" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P74" t="n">
         <v>2.72</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R74" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="S74" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="T74" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U74" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="V74" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W74" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X74" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y74" t="n">
         <v>980</v>
       </c>
       <c r="Z74" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA74" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC74" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD74" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE74" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF74" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG74" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI74" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK74" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL74" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM74" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO74" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
@@ -10525,13 +10525,13 @@
         <v>13.5</v>
       </c>
       <c r="G75" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H75" t="n">
         <v>1.27</v>
       </c>
       <c r="I75" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J75" t="n">
         <v>6</v>
@@ -10546,22 +10546,22 @@
         <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O75" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="R75" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="T75" t="n">
         <v>2.24</v>
@@ -10579,10 +10579,10 @@
         <v>980</v>
       </c>
       <c r="Y75" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z75" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA75" t="n">
         <v>11.5</v>
@@ -10666,7 +10666,7 @@
         <v>1.27</v>
       </c>
       <c r="I76" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="J76" t="n">
         <v>4.7</v>
@@ -10675,7 +10675,7 @@
         <v>11.5</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M76" t="n">
         <v>1.01</v>
@@ -10684,7 +10684,7 @@
         <v>1.88</v>
       </c>
       <c r="O76" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P76" t="n">
         <v>1.88</v>
@@ -10693,10 +10693,10 @@
         <v>1.78</v>
       </c>
       <c r="R76" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S76" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10705,7 +10705,7 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W76" t="n">
         <v>1.01</v>
@@ -10810,7 +10810,7 @@
         <v>3.5</v>
       </c>
       <c r="L77" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M77" t="n">
         <v>1.08</v>
@@ -10819,10 +10819,10 @@
         <v>3.65</v>
       </c>
       <c r="O77" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q77" t="n">
         <v>2.1</v>
@@ -10831,7 +10831,7 @@
         <v>1.34</v>
       </c>
       <c r="S77" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T77" t="n">
         <v>1.82</v>
@@ -10891,7 +10891,7 @@
         <v>48</v>
       </c>
       <c r="AM77" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN77" t="n">
         <v>34</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G78" t="n">
         <v>2.1</v>
@@ -10957,10 +10957,10 @@
         <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="R78" t="n">
         <v>1.33</v>
@@ -10972,7 +10972,7 @@
         <v>1.61</v>
       </c>
       <c r="U78" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V78" t="n">
         <v>1.32</v>
@@ -11014,13 +11014,13 @@
         <v>25</v>
       </c>
       <c r="AI78" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ78" t="n">
         <v>38</v>
       </c>
       <c r="AK78" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL78" t="n">
         <v>50</v>
@@ -11068,13 +11068,13 @@
         <v>2.3</v>
       </c>
       <c r="H79" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J79" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K79" t="n">
         <v>4.4</v>
@@ -11083,34 +11083,34 @@
         <v>1.01</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="O79" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="P79" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T79" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U79" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V79" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W79" t="n">
         <v>1.76</v>
@@ -11197,7 +11197,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G80" t="n">
         <v>4.8</v>
@@ -11206,7 +11206,7 @@
         <v>1.39</v>
       </c>
       <c r="I80" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J80" t="n">
         <v>3.35</v>
@@ -11221,7 +11221,7 @@
         <v>1.01</v>
       </c>
       <c r="N80" t="n">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="O80" t="n">
         <v>1.34</v>
@@ -11233,10 +11233,10 @@
         <v>1.95</v>
       </c>
       <c r="R80" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S80" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T80" t="n">
         <v>1.01</v>
@@ -11332,58 +11332,58 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="G81" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="I81" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K81" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="L81" t="n">
         <v>1.35</v>
       </c>
       <c r="M81" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N81" t="n">
-        <v>1.64</v>
+        <v>3.15</v>
       </c>
       <c r="O81" t="n">
         <v>1.38</v>
       </c>
       <c r="P81" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R81" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S81" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T81" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U81" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="V81" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W81" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="X81" t="n">
         <v>1000</v>
@@ -11485,7 +11485,7 @@
         <v>3.3</v>
       </c>
       <c r="L82" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M82" t="n">
         <v>1.11</v>
@@ -11521,7 +11521,7 @@
         <v>1.39</v>
       </c>
       <c r="X82" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y82" t="n">
         <v>8.4</v>
@@ -11554,7 +11554,7 @@
         <v>980</v>
       </c>
       <c r="AI82" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ82" t="n">
         <v>75</v>
@@ -11602,10 +11602,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="G83" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H83" t="n">
         <v>17.5</v>
@@ -11614,10 +11614,10 @@
         <v>36</v>
       </c>
       <c r="J83" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="K83" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11626,34 +11626,34 @@
         <v>1.01</v>
       </c>
       <c r="N83" t="n">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="O83" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P83" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.16</v>
+        <v>1.48</v>
       </c>
       <c r="R83" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="S83" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="V83" t="n">
         <v>1.03</v>
       </c>
       <c r="W83" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="X83" t="n">
         <v>980</v>
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G84" t="n">
         <v>2.36</v>
@@ -11761,13 +11761,13 @@
         <v>1.01</v>
       </c>
       <c r="N84" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O84" t="n">
         <v>1.27</v>
       </c>
       <c r="P84" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q84" t="n">
         <v>1.73</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="G85" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H85" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
@@ -11887,43 +11887,43 @@
         <v>4.5</v>
       </c>
       <c r="K85" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M85" t="n">
         <v>1.02</v>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O85" t="n">
         <v>1.11</v>
       </c>
       <c r="P85" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="R85" t="n">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="S85" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T85" t="n">
         <v>1.41</v>
       </c>
       <c r="U85" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V85" t="n">
         <v>1.14</v>
       </c>
       <c r="W85" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X85" t="n">
         <v>55</v>
@@ -12010,7 +12010,7 @@
         <v>2.34</v>
       </c>
       <c r="G86" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H86" t="n">
         <v>3.05</v>
@@ -12052,13 +12052,13 @@
         <v>1.54</v>
       </c>
       <c r="U86" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V86" t="n">
         <v>1.45</v>
       </c>
       <c r="W86" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X86" t="n">
         <v>28</v>
@@ -12151,10 +12151,10 @@
         <v>3.15</v>
       </c>
       <c r="I87" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J87" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
         <v>4.3</v>
@@ -12169,28 +12169,28 @@
         <v>5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P87" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="R87" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S87" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="T87" t="n">
         <v>1.57</v>
       </c>
       <c r="U87" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V87" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W87" t="n">
         <v>1.76</v>
@@ -12226,28 +12226,28 @@
         <v>14</v>
       </c>
       <c r="AH87" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ87" t="n">
         <v>34</v>
       </c>
       <c r="AK87" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL87" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM87" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN87" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88">
@@ -12307,7 +12307,7 @@
         <v>1.13</v>
       </c>
       <c r="P88" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q88" t="n">
         <v>1.38</v>
@@ -12316,13 +12316,13 @@
         <v>1.87</v>
       </c>
       <c r="S88" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T88" t="n">
         <v>1.41</v>
       </c>
       <c r="U88" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="V88" t="n">
         <v>1.62</v>
@@ -12382,7 +12382,7 @@
         <v>14</v>
       </c>
       <c r="AO88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G89" t="n">
         <v>1.49</v>
@@ -12421,13 +12421,13 @@
         <v>6.8</v>
       </c>
       <c r="I89" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J89" t="n">
         <v>5.4</v>
       </c>
       <c r="K89" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L89" t="n">
         <v>1.21</v>
@@ -12445,7 +12445,7 @@
         <v>3</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R89" t="n">
         <v>1.81</v>
@@ -12457,7 +12457,7 @@
         <v>1.64</v>
       </c>
       <c r="U89" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V89" t="n">
         <v>1.15</v>
@@ -12475,7 +12475,7 @@
         <v>85</v>
       </c>
       <c r="AA89" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB89" t="n">
         <v>16.5</v>
@@ -12517,7 +12517,7 @@
         <v>5.2</v>
       </c>
       <c r="AO89" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
@@ -12547,58 +12547,58 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G90" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="H90" t="n">
         <v>5.2</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J90" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K90" t="n">
         <v>5.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M90" t="n">
         <v>1.02</v>
       </c>
       <c r="N90" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O90" t="n">
         <v>1.11</v>
       </c>
       <c r="P90" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q90" t="n">
         <v>1.37</v>
       </c>
       <c r="R90" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="S90" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V90" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W90" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="X90" t="n">
         <v>1000</v>
@@ -12682,94 +12682,94 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G91" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="I91" t="n">
         <v>1.63</v>
       </c>
       <c r="J91" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K91" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
         <v>1.01</v>
       </c>
       <c r="M91" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U91" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R91" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U91" t="n">
-        <v>1.01</v>
       </c>
       <c r="V91" t="n">
         <v>2.56</v>
       </c>
       <c r="W91" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="X91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD91" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF91" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI91" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ91" t="n">
         <v>1000</v>
@@ -12787,7 +12787,7 @@
         <v>1000</v>
       </c>
       <c r="AO91" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="92">
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G92" t="n">
         <v>1.18</v>
@@ -12829,10 +12829,10 @@
         <v>24</v>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L92" t="n">
         <v>1.15</v>
@@ -12874,7 +12874,7 @@
         <v>65</v>
       </c>
       <c r="Y92" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z92" t="n">
         <v>250</v>
@@ -12958,16 +12958,16 @@
         <v>1.28</v>
       </c>
       <c r="H93" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I93" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J93" t="n">
         <v>7.2</v>
       </c>
       <c r="K93" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L93" t="n">
         <v>1.01</v>
@@ -12982,19 +12982,19 @@
         <v>1.09</v>
       </c>
       <c r="P93" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="Q93" t="n">
         <v>1.28</v>
       </c>
       <c r="R93" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="S93" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U93" t="n">
         <v>2.28</v>
@@ -13018,7 +13018,7 @@
         <v>480</v>
       </c>
       <c r="AB93" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC93" t="n">
         <v>19.5</v>
@@ -13039,7 +13039,7 @@
         <v>25</v>
       </c>
       <c r="AI93" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ93" t="n">
         <v>13</v>
@@ -13057,7 +13057,7 @@
         <v>3.15</v>
       </c>
       <c r="AO93" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
@@ -13090,13 +13090,13 @@
         <v>2.26</v>
       </c>
       <c r="G94" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H94" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I94" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J94" t="n">
         <v>3.5</v>
@@ -13117,7 +13117,7 @@
         <v>1.28</v>
       </c>
       <c r="P94" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q94" t="n">
         <v>1.78</v>
@@ -13129,13 +13129,13 @@
         <v>3.1</v>
       </c>
       <c r="T94" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U94" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V94" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W94" t="n">
         <v>1.69</v>
@@ -13165,10 +13165,10 @@
         <v>980</v>
       </c>
       <c r="AF94" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH94" t="n">
         <v>21</v>
@@ -13180,7 +13180,7 @@
         <v>980</v>
       </c>
       <c r="AK94" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL94" t="n">
         <v>980</v>
@@ -13189,7 +13189,7 @@
         <v>100</v>
       </c>
       <c r="AN94" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO94" t="n">
         <v>980</v>
@@ -13225,19 +13225,19 @@
         <v>4.1</v>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H95" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I95" t="n">
         <v>1.96</v>
       </c>
       <c r="J95" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K95" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L95" t="n">
         <v>1.01</v>
@@ -13273,7 +13273,7 @@
         <v>2.04</v>
       </c>
       <c r="W95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X95" t="n">
         <v>25</v>
@@ -13312,7 +13312,7 @@
         <v>36</v>
       </c>
       <c r="AJ95" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK95" t="n">
         <v>60</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G96" t="n">
         <v>5.4</v>
       </c>
       <c r="H96" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I96" t="n">
         <v>1.79</v>
       </c>
       <c r="J96" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L96" t="n">
         <v>1.31</v>
@@ -13381,16 +13381,16 @@
         <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O96" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P96" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R96" t="n">
         <v>1.39</v>
@@ -13399,16 +13399,16 @@
         <v>3.4</v>
       </c>
       <c r="T96" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U96" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V96" t="n">
         <v>2.26</v>
       </c>
       <c r="W96" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X96" t="n">
         <v>15.5</v>
@@ -13423,7 +13423,7 @@
         <v>22</v>
       </c>
       <c r="AB96" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC96" t="n">
         <v>8.800000000000001</v>
@@ -13522,10 +13522,10 @@
         <v>1.32</v>
       </c>
       <c r="P97" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R97" t="n">
         <v>1.37</v>
@@ -13534,7 +13534,7 @@
         <v>3.45</v>
       </c>
       <c r="T97" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U97" t="n">
         <v>2.08</v>
@@ -13597,7 +13597,7 @@
         <v>70</v>
       </c>
       <c r="AO97" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -13636,7 +13636,7 @@
         <v>3.1</v>
       </c>
       <c r="I98" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J98" t="n">
         <v>3.45</v>
@@ -13651,16 +13651,16 @@
         <v>1.07</v>
       </c>
       <c r="N98" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O98" t="n">
         <v>1.32</v>
       </c>
       <c r="P98" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R98" t="n">
         <v>1.38</v>
@@ -13669,16 +13669,16 @@
         <v>3.4</v>
       </c>
       <c r="T98" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U98" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V98" t="n">
         <v>1.45</v>
       </c>
       <c r="W98" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X98" t="n">
         <v>14</v>
@@ -13687,7 +13687,7 @@
         <v>13</v>
       </c>
       <c r="Z98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA98" t="n">
         <v>55</v>
@@ -13696,7 +13696,7 @@
         <v>11</v>
       </c>
       <c r="AC98" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD98" t="n">
         <v>13.5</v>
@@ -13705,7 +13705,7 @@
         <v>36</v>
       </c>
       <c r="AF98" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG98" t="n">
         <v>11.5</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G99" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H99" t="n">
         <v>3.4</v>
       </c>
       <c r="I99" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J99" t="n">
         <v>3.05</v>
@@ -13786,10 +13786,10 @@
         <v>1.01</v>
       </c>
       <c r="N99" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P99" t="n">
         <v>1.62</v>
@@ -13804,13 +13804,13 @@
         <v>4</v>
       </c>
       <c r="T99" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U99" t="n">
         <v>1.88</v>
       </c>
       <c r="V99" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W99" t="n">
         <v>1.61</v>
@@ -13819,10 +13819,10 @@
         <v>12</v>
       </c>
       <c r="Y99" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z99" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA99" t="n">
         <v>1000</v>
@@ -13831,7 +13831,7 @@
         <v>10</v>
       </c>
       <c r="AC99" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD99" t="n">
         <v>18.5</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G100" t="n">
         <v>1.74</v>
@@ -13912,7 +13912,7 @@
         <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -14197,16 +14197,16 @@
         <v>1.34</v>
       </c>
       <c r="P102" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="R102" t="n">
         <v>1.18</v>
       </c>
       <c r="S102" t="n">
-        <v>1.34</v>
+        <v>2.14</v>
       </c>
       <c r="T102" t="n">
         <v>1.01</v>
@@ -14305,7 +14305,7 @@
         <v>2.38</v>
       </c>
       <c r="G103" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H103" t="n">
         <v>2.52</v>
@@ -14317,7 +14317,7 @@
         <v>2.84</v>
       </c>
       <c r="K103" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14326,13 +14326,13 @@
         <v>1.01</v>
       </c>
       <c r="N103" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="O103" t="n">
         <v>1.01</v>
       </c>
       <c r="P103" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q103" t="n">
         <v>2.22</v>
@@ -14353,7 +14353,7 @@
         <v>1.37</v>
       </c>
       <c r="W103" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X103" t="n">
         <v>1000</v>
@@ -14455,7 +14455,7 @@
         <v>3.45</v>
       </c>
       <c r="L104" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M104" t="n">
         <v>1.08</v>
@@ -14470,28 +14470,28 @@
         <v>1.88</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R104" t="n">
         <v>1.34</v>
       </c>
       <c r="S104" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T104" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U104" t="n">
         <v>2.16</v>
       </c>
       <c r="V104" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W104" t="n">
         <v>1.38</v>
       </c>
       <c r="X104" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y104" t="n">
         <v>9.4</v>
@@ -14521,7 +14521,7 @@
         <v>14.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI104" t="n">
         <v>40</v>
@@ -14536,13 +14536,13 @@
         <v>55</v>
       </c>
       <c r="AM104" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN104" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO104" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G105" t="n">
         <v>1.82</v>
@@ -14614,10 +14614,10 @@
         <v>2.34</v>
       </c>
       <c r="T105" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U105" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V105" t="n">
         <v>1.27</v>
@@ -14635,7 +14635,7 @@
         <v>40</v>
       </c>
       <c r="AA105" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB105" t="n">
         <v>14.5</v>
@@ -14740,7 +14740,7 @@
         <v>1.72</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R106" t="n">
         <v>1.24</v>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G107" t="n">
         <v>2.02</v>
@@ -14857,7 +14857,7 @@
         <v>3.9</v>
       </c>
       <c r="K107" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L107" t="n">
         <v>1.31</v>
@@ -14869,22 +14869,22 @@
         <v>4.8</v>
       </c>
       <c r="O107" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P107" t="n">
         <v>2.32</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R107" t="n">
         <v>1.52</v>
       </c>
       <c r="S107" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T107" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U107" t="n">
         <v>2.3</v>
@@ -15001,16 +15001,16 @@
         <v>1.06</v>
       </c>
       <c r="N108" t="n">
-        <v>1.92</v>
+        <v>3.6</v>
       </c>
       <c r="O108" t="n">
         <v>1.31</v>
       </c>
       <c r="P108" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R108" t="n">
         <v>1.36</v>
@@ -15019,19 +15019,19 @@
         <v>3.25</v>
       </c>
       <c r="T108" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U108" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V108" t="n">
         <v>2</v>
       </c>
       <c r="W108" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X108" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y108" t="n">
         <v>11</v>
@@ -15082,7 +15082,7 @@
         <v>80</v>
       </c>
       <c r="AO108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="109">
@@ -15259,7 +15259,7 @@
         <v>2.96</v>
       </c>
       <c r="J110" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K110" t="n">
         <v>6.8</v>
@@ -15277,10 +15277,10 @@
         <v>1.11</v>
       </c>
       <c r="P110" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="R110" t="n">
         <v>1.69</v>
@@ -15382,10 +15382,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G111" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H111" t="n">
         <v>3.75</v>
@@ -15394,7 +15394,7 @@
         <v>4.2</v>
       </c>
       <c r="J111" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K111" t="n">
         <v>3.35</v>
@@ -15418,7 +15418,7 @@
         <v>2.26</v>
       </c>
       <c r="R111" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S111" t="n">
         <v>4.2</v>
@@ -15433,7 +15433,7 @@
         <v>1.31</v>
       </c>
       <c r="W111" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X111" t="n">
         <v>12.5</v>
@@ -15442,7 +15442,7 @@
         <v>13</v>
       </c>
       <c r="Z111" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA111" t="n">
         <v>1000</v>
@@ -15472,7 +15472,7 @@
         <v>1000</v>
       </c>
       <c r="AJ111" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK111" t="n">
         <v>30</v>
@@ -15484,7 +15484,7 @@
         <v>1000</v>
       </c>
       <c r="AN111" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO111" t="n">
         <v>1000</v>
@@ -15517,31 +15517,31 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G112" t="n">
         <v>2.16</v>
       </c>
       <c r="H112" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I112" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J112" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K112" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L112" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M112" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N112" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O112" t="n">
         <v>1.45</v>
@@ -15550,7 +15550,7 @@
         <v>1.67</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="R112" t="n">
         <v>1.24</v>
@@ -15562,16 +15562,16 @@
         <v>1.89</v>
       </c>
       <c r="U112" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V112" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W112" t="n">
         <v>1.86</v>
       </c>
       <c r="X112" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y112" t="n">
         <v>14</v>
@@ -15580,19 +15580,19 @@
         <v>32</v>
       </c>
       <c r="AA112" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB112" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC112" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD112" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE112" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AF112" t="n">
         <v>12</v>
@@ -15604,7 +15604,7 @@
         <v>21</v>
       </c>
       <c r="AI112" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ112" t="n">
         <v>27</v>
@@ -15622,7 +15622,7 @@
         <v>24</v>
       </c>
       <c r="AO112" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
@@ -15652,22 +15652,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="H113" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="I113" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="J113" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K113" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="L113" t="n">
         <v>1.01</v>
@@ -15676,40 +15676,40 @@
         <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="O113" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P113" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="R113" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="S113" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="T113" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U113" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="V113" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W113" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="X113" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y113" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z113" t="n">
         <v>1000</v>
@@ -15718,43 +15718,43 @@
         <v>1000</v>
       </c>
       <c r="AB113" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC113" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD113" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE113" t="n">
         <v>1000</v>
       </c>
       <c r="AF113" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG113" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH113" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI113" t="n">
         <v>1000</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL113" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM113" t="n">
         <v>1000</v>
       </c>
       <c r="AN113" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO113" t="n">
         <v>1000</v>
@@ -15925,10 +15925,10 @@
         <v>2.08</v>
       </c>
       <c r="G115" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I115" t="n">
         <v>4.1</v>
@@ -15964,7 +15964,7 @@
         <v>3.35</v>
       </c>
       <c r="T115" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U115" t="n">
         <v>2.2</v>
@@ -15973,10 +15973,10 @@
         <v>1.32</v>
       </c>
       <c r="W115" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="X115" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y115" t="n">
         <v>15.5</v>
@@ -15988,7 +15988,7 @@
         <v>80</v>
       </c>
       <c r="AB115" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC115" t="n">
         <v>7.8</v>
@@ -16027,7 +16027,7 @@
         <v>15</v>
       </c>
       <c r="AO115" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
@@ -16081,13 +16081,13 @@
         <v>1.01</v>
       </c>
       <c r="N116" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P116" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q116" t="n">
         <v>1.84</v>
@@ -16096,7 +16096,7 @@
         <v>1.18</v>
       </c>
       <c r="S116" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="T116" t="n">
         <v>1.01</v>
@@ -16201,7 +16201,7 @@
         <v>1.3</v>
       </c>
       <c r="I117" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J117" t="n">
         <v>4.7</v>
@@ -16225,7 +16225,7 @@
         <v>2.74</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R117" t="n">
         <v>1.56</v>
@@ -16351,28 +16351,28 @@
         <v>1.02</v>
       </c>
       <c r="N118" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O118" t="n">
         <v>1.13</v>
       </c>
       <c r="P118" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="Q118" t="n">
         <v>1.42</v>
       </c>
       <c r="R118" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="S118" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="T118" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="U118" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V118" t="n">
         <v>1.02</v>
@@ -16429,7 +16429,7 @@
         <v>530</v>
       </c>
       <c r="AN118" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="AO118" t="n">
         <v>1000</v>
@@ -16462,22 +16462,22 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="G119" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="H119" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J119" t="n">
         <v>3.9</v>
       </c>
       <c r="K119" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="L119" t="n">
         <v>1.01</v>
@@ -16492,7 +16492,7 @@
         <v>1.13</v>
       </c>
       <c r="P119" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q119" t="n">
         <v>1.45</v>
@@ -16510,10 +16510,10 @@
         <v>1.01</v>
       </c>
       <c r="V119" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W119" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="X119" t="n">
         <v>1000</v>
@@ -16636,7 +16636,7 @@
         <v>1.35</v>
       </c>
       <c r="S120" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T120" t="n">
         <v>1.87</v>
@@ -16696,7 +16696,7 @@
         <v>38</v>
       </c>
       <c r="AM120" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN120" t="n">
         <v>15</v>
@@ -16867,16 +16867,16 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="G122" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H122" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I122" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J122" t="n">
         <v>3.4</v>
@@ -16888,91 +16888,91 @@
         <v>1.01</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N122" t="n">
-        <v>1.97</v>
+        <v>3.85</v>
       </c>
       <c r="O122" t="n">
         <v>1.29</v>
       </c>
       <c r="P122" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R122" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="S122" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T122" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U122" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V122" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W122" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X122" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG122" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z122" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA122" t="n">
+      <c r="AH122" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI122" t="n">
         <v>44</v>
       </c>
-      <c r="AB122" t="n">
+      <c r="AJ122" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO122" t="n">
         <v>21</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM122" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="123">
@@ -17011,7 +17011,7 @@
         <v>3.85</v>
       </c>
       <c r="I123" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="J123" t="n">
         <v>1.09</v>
@@ -17137,85 +17137,85 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G124" t="n">
         <v>2.44</v>
       </c>
       <c r="H124" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I124" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J124" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K124" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L124" t="n">
         <v>1.01</v>
       </c>
       <c r="M124" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N124" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="O124" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P124" t="n">
-        <v>1.52</v>
+        <v>2.28</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="R124" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="S124" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T124" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U124" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="V124" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W124" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X124" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y124" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Z124" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA124" t="n">
         <v>60</v>
       </c>
       <c r="AB124" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AC124" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD124" t="n">
         <v>14</v>
       </c>
       <c r="AE124" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF124" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AG124" t="n">
         <v>12</v>
@@ -17224,10 +17224,10 @@
         <v>17.5</v>
       </c>
       <c r="AI124" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ124" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK124" t="n">
         <v>24</v>
@@ -17236,13 +17236,13 @@
         <v>32</v>
       </c>
       <c r="AM124" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN124" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO124" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -17335,7 +17335,7 @@
         <v>22</v>
       </c>
       <c r="AA125" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB125" t="n">
         <v>9.800000000000001</v>
@@ -17347,7 +17347,7 @@
         <v>14.5</v>
       </c>
       <c r="AE125" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF125" t="n">
         <v>17.5</v>
@@ -17359,25 +17359,25 @@
         <v>20</v>
       </c>
       <c r="AI125" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ125" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK125" t="n">
         <v>980</v>
       </c>
       <c r="AL125" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM125" t="n">
         <v>150</v>
       </c>
       <c r="AN125" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO125" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126">
@@ -17407,7 +17407,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G126" t="n">
         <v>1.85</v>
@@ -17422,7 +17422,7 @@
         <v>4</v>
       </c>
       <c r="K126" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L126" t="n">
         <v>1.32</v>
@@ -17440,19 +17440,19 @@
         <v>2.22</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R126" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S126" t="n">
         <v>2.74</v>
       </c>
       <c r="T126" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U126" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V126" t="n">
         <v>1.25</v>
@@ -17467,7 +17467,7 @@
         <v>26</v>
       </c>
       <c r="Z126" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA126" t="n">
         <v>110</v>
@@ -17476,10 +17476,10 @@
         <v>11</v>
       </c>
       <c r="AC126" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD126" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE126" t="n">
         <v>55</v>
@@ -17491,13 +17491,13 @@
         <v>10.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI126" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ126" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK126" t="n">
         <v>17.5</v>
@@ -17545,7 +17545,7 @@
         <v>2.64</v>
       </c>
       <c r="G127" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H127" t="n">
         <v>3</v>
@@ -17566,25 +17566,25 @@
         <v>1.09</v>
       </c>
       <c r="N127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O127" t="n">
         <v>1.39</v>
       </c>
       <c r="P127" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R127" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S127" t="n">
         <v>4</v>
       </c>
       <c r="T127" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="U127" t="n">
         <v>1.84</v>
@@ -17596,7 +17596,7 @@
         <v>1.54</v>
       </c>
       <c r="X127" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y127" t="n">
         <v>980</v>
@@ -17605,7 +17605,7 @@
         <v>980</v>
       </c>
       <c r="AA127" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB127" t="n">
         <v>980</v>
@@ -17629,7 +17629,7 @@
         <v>980</v>
       </c>
       <c r="AI127" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ127" t="n">
         <v>980</v>
@@ -17647,7 +17647,7 @@
         <v>980</v>
       </c>
       <c r="AO127" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128">
@@ -17677,16 +17677,16 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H128" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I128" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="J128" t="n">
         <v>3.45</v>
@@ -17713,22 +17713,22 @@
         <v>1.81</v>
       </c>
       <c r="R128" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S128" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T128" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U128" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="V128" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="W128" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X128" t="n">
         <v>19.5</v>
@@ -17812,22 +17812,22 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G129" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H129" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I129" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J129" t="n">
         <v>5.3</v>
       </c>
       <c r="K129" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L129" t="n">
         <v>1.01</v>
@@ -17836,43 +17836,43 @@
         <v>1.01</v>
       </c>
       <c r="N129" t="n">
-        <v>2.56</v>
+        <v>5.9</v>
       </c>
       <c r="O129" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P129" t="n">
-        <v>2.54</v>
+        <v>2.92</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R129" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S129" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T129" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U129" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V129" t="n">
         <v>1.08</v>
       </c>
       <c r="W129" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X129" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y129" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z129" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA129" t="n">
         <v>1000</v>
@@ -17884,7 +17884,7 @@
         <v>980</v>
       </c>
       <c r="AD129" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE129" t="n">
         <v>1000</v>
@@ -17899,7 +17899,7 @@
         <v>980</v>
       </c>
       <c r="AI129" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ129" t="n">
         <v>980</v>
@@ -17911,10 +17911,10 @@
         <v>980</v>
       </c>
       <c r="AM129" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN129" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO129" t="n">
         <v>1000</v>
@@ -17980,7 +17980,7 @@
         <v>1.54</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R130" t="n">
         <v>1.18</v>
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G131" t="n">
         <v>2.74</v>
@@ -18100,7 +18100,7 @@
         <v>3.05</v>
       </c>
       <c r="L131" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M131" t="n">
         <v>1.13</v>
@@ -18148,7 +18148,7 @@
         <v>65</v>
       </c>
       <c r="AB131" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC131" t="n">
         <v>6.8</v>
@@ -18247,16 +18247,16 @@
         <v>1.24</v>
       </c>
       <c r="P132" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R132" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S132" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T132" t="n">
         <v>1.97</v>
@@ -18319,7 +18319,7 @@
         <v>140</v>
       </c>
       <c r="AN132" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO132" t="n">
         <v>150</v>
@@ -18355,7 +18355,7 @@
         <v>6.6</v>
       </c>
       <c r="G133" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H133" t="n">
         <v>1.51</v>
@@ -18385,7 +18385,7 @@
         <v>3.1</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R133" t="n">
         <v>1.87</v>
@@ -18412,7 +18412,7 @@
         <v>15</v>
       </c>
       <c r="Z133" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA133" t="n">
         <v>15.5</v>
@@ -18487,22 +18487,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="G134" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H134" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I134" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J134" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K134" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="L134" t="n">
         <v>1.33</v>
@@ -18535,10 +18535,10 @@
         <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W134" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X134" t="n">
         <v>1000</v>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G135" t="n">
         <v>1.64</v>
@@ -18631,7 +18631,7 @@
         <v>1.04</v>
       </c>
       <c r="I135" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J135" t="n">
         <v>4.2</v>
@@ -18670,7 +18670,7 @@
         <v>1.01</v>
       </c>
       <c r="V135" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W135" t="n">
         <v>2.56</v>
@@ -18778,7 +18778,7 @@
         <v>1.29</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N136" t="n">
         <v>5.2</v>
@@ -18796,13 +18796,13 @@
         <v>1.57</v>
       </c>
       <c r="S136" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T136" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U136" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="V136" t="n">
         <v>1.06</v>
@@ -18823,7 +18823,7 @@
         <v>910</v>
       </c>
       <c r="AB136" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC136" t="n">
         <v>15</v>
@@ -18868,7 +18868,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -18883,121 +18883,121 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="G137" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="H137" t="n">
-        <v>2.74</v>
+        <v>4.8</v>
       </c>
       <c r="I137" t="n">
-        <v>3.35</v>
+        <v>7.2</v>
       </c>
       <c r="J137" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K137" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L137" t="n">
         <v>1.01</v>
       </c>
       <c r="M137" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N137" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O137" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="P137" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R137" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S137" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="T137" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U137" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V137" t="n">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="W137" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="X137" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y137" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z137" t="n">
         <v>1000</v>
       </c>
       <c r="AA137" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB137" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC137" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD137" t="n">
         <v>1000</v>
       </c>
       <c r="AE137" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF137" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG137" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH137" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI137" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK137" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL137" t="n">
         <v>1000</v>
       </c>
       <c r="AM137" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN137" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO137" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138">
@@ -19018,31 +19018,31 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.56</v>
+        <v>1.91</v>
       </c>
       <c r="G138" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="H138" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="I138" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K138" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="L138" t="n">
         <v>1.01</v>
@@ -19051,13 +19051,13 @@
         <v>1.01</v>
       </c>
       <c r="N138" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O138" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P138" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q138" t="n">
         <v>1.79</v>
@@ -19075,10 +19075,10 @@
         <v>1.01</v>
       </c>
       <c r="V138" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="W138" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="X138" t="n">
         <v>1000</v>
@@ -19138,7 +19138,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -19153,31 +19153,31 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="G139" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="H139" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I139" t="n">
-        <v>4.8</v>
+        <v>1.42</v>
       </c>
       <c r="J139" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K139" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="L139" t="n">
         <v>1.01</v>
@@ -19186,22 +19186,22 @@
         <v>1.01</v>
       </c>
       <c r="N139" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="O139" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P139" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R139" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S139" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="T139" t="n">
         <v>1.01</v>
@@ -19210,10 +19210,10 @@
         <v>1.01</v>
       </c>
       <c r="V139" t="n">
-        <v>1.26</v>
+        <v>3.35</v>
       </c>
       <c r="W139" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X139" t="n">
         <v>1000</v>
@@ -19273,7 +19273,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -19288,127 +19288,127 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="G140" t="n">
-        <v>1.79</v>
+        <v>2.98</v>
       </c>
       <c r="H140" t="n">
-        <v>4.8</v>
+        <v>2.74</v>
       </c>
       <c r="I140" t="n">
-        <v>7.2</v>
+        <v>3.35</v>
       </c>
       <c r="J140" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K140" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L140" t="n">
         <v>1.01</v>
       </c>
       <c r="M140" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N140" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="O140" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P140" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R140" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S140" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="T140" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="U140" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V140" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="W140" t="n">
-        <v>2.26</v>
+        <v>1.51</v>
       </c>
       <c r="X140" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y140" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z140" t="n">
         <v>1000</v>
       </c>
       <c r="AA140" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB140" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC140" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD140" t="n">
         <v>1000</v>
       </c>
       <c r="AE140" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF140" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG140" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH140" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI140" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ140" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK140" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL140" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM140" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN140" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO140" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -19423,31 +19423,31 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G141" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I141" t="n">
-        <v>1.42</v>
+        <v>3.2</v>
       </c>
       <c r="J141" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K141" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L141" t="n">
         <v>1.01</v>
@@ -19456,22 +19456,22 @@
         <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>1.71</v>
+        <v>3.4</v>
       </c>
       <c r="O141" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P141" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R141" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S141" t="n">
-        <v>2.92</v>
+        <v>1.8</v>
       </c>
       <c r="T141" t="n">
         <v>1.01</v>
@@ -19480,10 +19480,10 @@
         <v>1.01</v>
       </c>
       <c r="V141" t="n">
-        <v>3.35</v>
+        <v>1.46</v>
       </c>
       <c r="W141" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X141" t="n">
         <v>1000</v>
@@ -19702,16 +19702,16 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G143" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I143" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J143" t="n">
         <v>2.98</v>
@@ -19723,13 +19723,13 @@
         <v>1.01</v>
       </c>
       <c r="M143" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N143" t="n">
-        <v>1.48</v>
+        <v>2.44</v>
       </c>
       <c r="O143" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P143" t="n">
         <v>1.48</v>
@@ -19738,76 +19738,76 @@
         <v>2.72</v>
       </c>
       <c r="R143" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S143" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="T143" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U143" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V143" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W143" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X143" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Y143" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z143" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA143" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB143" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC143" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD143" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE143" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF143" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG143" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI143" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ143" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AK143" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL143" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AM143" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN143" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO143" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144">
@@ -19861,19 +19861,19 @@
         <v>1.1</v>
       </c>
       <c r="N144" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O144" t="n">
         <v>1.46</v>
       </c>
       <c r="P144" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q144" t="n">
         <v>2.3</v>
       </c>
       <c r="R144" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S144" t="n">
         <v>4.4</v>
@@ -19885,10 +19885,10 @@
         <v>1.89</v>
       </c>
       <c r="V144" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W144" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X144" t="n">
         <v>11</v>
@@ -19930,7 +19930,7 @@
         <v>38</v>
       </c>
       <c r="AK144" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL144" t="n">
         <v>55</v>
@@ -19939,7 +19939,7 @@
         <v>170</v>
       </c>
       <c r="AN144" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO144" t="n">
         <v>65</v>
@@ -19978,7 +19978,7 @@
         <v>4.4</v>
       </c>
       <c r="H145" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="I145" t="n">
         <v>2.66</v>
@@ -19996,16 +19996,16 @@
         <v>1.01</v>
       </c>
       <c r="N145" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O145" t="n">
         <v>1.38</v>
       </c>
       <c r="P145" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="R145" t="n">
         <v>1.21</v>
@@ -20023,7 +20023,7 @@
         <v>1.6</v>
       </c>
       <c r="W145" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X145" t="n">
         <v>1000</v>
@@ -20083,7 +20083,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Bolivian Liga de Futbol Profesional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -20098,31 +20098,31 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorge Wilstermann</t>
+          <t>Atletico Nacional Medell</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="G146" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="H146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J146" t="n">
         <v>3.3</v>
       </c>
-      <c r="I146" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K146" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L146" t="n">
         <v>1.01</v>
@@ -20131,34 +20131,34 @@
         <v>1.01</v>
       </c>
       <c r="N146" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="O146" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P146" t="n">
-        <v>1.41</v>
+        <v>1.82</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="R146" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="S146" t="n">
-        <v>2.28</v>
+        <v>2.88</v>
       </c>
       <c r="T146" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U146" t="n">
         <v>1.01</v>
       </c>
       <c r="V146" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W146" t="n">
-        <v>1.96</v>
+        <v>1.51</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20218,7 +20218,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Bolivian Liga de Futbol Profesional</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -20233,127 +20233,127 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Jorge Wilstermann</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G147" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="H147" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="J147" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="K147" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="L147" t="n">
         <v>1.01</v>
       </c>
       <c r="M147" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N147" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="O147" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P147" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="R147" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S147" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="T147" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U147" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V147" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W147" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="X147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA147" t="n">
         <v>1000</v>
       </c>
       <c r="AB147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE147" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI147" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM147" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO147" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -20368,31 +20368,31 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medell</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="G148" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="H148" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="I148" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="J148" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="K148" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L148" t="n">
         <v>1.01</v>
@@ -20401,87 +20401,222 @@
         <v>1.01</v>
       </c>
       <c r="N148" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="O148" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="P148" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Q148" t="n">
         <v>1.83</v>
       </c>
       <c r="R148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I149" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O149" t="n">
         <v>1.3</v>
       </c>
-      <c r="S148" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T148" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U148" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V148" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W148" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO148" t="n">
+      <c r="P149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO149" t="n">
         <v>1000</v>
       </c>
     </row>
